--- a/products/SUN SPA/上架.xlsx
+++ b/products/SUN SPA/上架.xlsx
@@ -4,25 +4,211 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="指令" sheetId="1" r:id="rId1"/>
+    <sheet name="網頁" sheetId="2" r:id="rId2"/>
+    <sheet name="網頁-原" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>&lt;img src="./1-1.jpg" /&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D:\catalog\products\SUN SPA\share\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>濾光帽</t>
+  </si>
+  <si>
+    <t>/products/SUN SPA/cap/1000.jpg</t>
+  </si>
+  <si>
+    <t>Filtering sunlight cap</t>
+  </si>
+  <si>
+    <t>真 專利光學面料,過濾有害光 保留有益光,非塗層 效果持久 久曬不褪色,&lt;br&gt;登山和極地 專業機能服等級織物,醫級無毒布 / UPF50+ 織物抗UV最高規格,&lt;br&gt;物理光能護膚 非侵入 免塗抹,遮陽防曬 輕薄透氣 抗UV防紫外線,&lt;br&gt;顏色：粉 橘 綠,尺寸：F 可調整鬆緊設計,帽緣深24cm、頭圍42-60cm、帽高16cm),材質：50%POLYESTER 50%Comfo-Fil(R),產地：台灣&lt;br&gt;洗滌方式：,此為特殊機能面料 洗滌正確則可持久保持功用,請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精</t>
+  </si>
+  <si>
+    <t>商品2</t>
+  </si>
+  <si>
+    <t>https://img1.momoshop.com.tw/goodsimg/0005/812/519/5812519_L.jpg</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>&lt;div class="video3"&gt;&lt;iframe height=498 width=510 src='http://player.youku.com/embed/XMzg1NDA1NjY5Ng==' frameborder=0 'allowfullscreen'&gt;&lt;/iframe&gt;&lt;/div&gt;
+&lt;img src="./products/SUN SPA/share/11.jpg"&gt;&lt;img src="./products/SUN SPA/share/12.jpg"&gt;&lt;img src="./products/SUN SPA/share/13.jpg"&gt;</t>
+  </si>
+  <si>
+    <t>商品3</t>
+  </si>
+  <si>
+    <t>https://img1.momoshop.com.tw/goodsimg/0004/979/100/4979100_L.jpg</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
+顏色：粉 橘 綠&lt;br&gt;
+尺寸：F 可調整鬆緊設計&lt;br&gt;
+帽緣深24cm、頭圍42-60cm、帽高16cm)&lt;br&gt;
+材質：50%POLYESTER 50%Comfo-Fil(R)&lt;br&gt;
+產地：台灣&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>商品4</t>
+  </si>
+  <si>
+    <t>https://img4.momoshop.com.tw/goodsimg/0005/438/604/5438604_L.jpg</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>顏色：粉 橘 綠&lt;br&gt;
+尺寸：F 可調整鬆緊設計&lt;br&gt;
+帽緣深24cm、頭圍42-60cm、帽高16cm)&lt;br&gt;
+材質：50%POLYESTER 50%Comfo-Fil(R)&lt;br&gt;
+產地：台灣&lt;br&gt;&lt;br&gt;
+洗滌方式：&lt;br&gt;
+此為特殊機能面料 洗滌正確則可持久保持功用&lt;br&gt;
+請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>商品5</t>
+  </si>
+  <si>
+    <t>https://img4.momoshop.com.tw/goodsimg/0006/008/582/6008582_L.jpg</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>&lt;div class="video3"&gt;&lt;iframe height=498 width=510 src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder=0 allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
+&lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>商品6</t>
+  </si>
+  <si>
+    <t>https://img4.momoshop.com.tw/goodsimg/0005/813/048/5813048_L.jpg</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>&lt;div class="video3"&gt;&lt;iframe height=”498” width=”510” src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder=”0” allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
+&lt;br&gt;&lt;br&gt;
+&lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>商品7</t>
+  </si>
+  <si>
+    <t>https://img4.momoshop.com.tw/goodsimg/0005/766/766/5766766_L.jpg</t>
+  </si>
+  <si>
+    <t>P0007</t>
+  </si>
+  <si>
+    <t>簡單介紹2</t>
+  </si>
+  <si>
+    <t>商品8</t>
+  </si>
+  <si>
+    <t>https://img4.momoshop.com.tw/goodsimg/0005/431/633/5431633_L.jpg</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>濾光帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">真 專利光學面料,
+過濾有害光 保留有益光,
+非塗層 效果持久 久曬不褪色,
+登山和極地 專業機能服等級織物,
+醫級無毒布 / UPF50+ 織物抗UV最高規格
+物理光能護膚 非侵入 免塗抹,
+遮陽防曬 輕薄透氣 抗UV防紫外線
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境內&lt;br&gt;
+&lt;div class="video3"&gt;&lt;iframe height="498" width="510" src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder="0 allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
+&lt;br&gt;&lt;br&gt;
+境外&lt;br&gt;
+&lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
+&lt;br&gt;
+&lt;img src="./products/SUN SPA/share/11.jpg"&gt;
+&lt;img src="./products/SUN SPA/share/12.jpg"&gt;
+&lt;img src="./products/SUN SPA/cap/750.jpg"&gt;
+&lt;img src="./products/SUN SPA/cap/1.jpg"&gt;
+&lt;img src="./products/SUN SPA/cap/2.jpg"&gt;
+&lt;img src="./products/SUN SPA/cap/3.jpg"&gt;
+&lt;img src="./products/SUN SPA/cap/4.jpg"&gt;
+&lt;img src="./products/SUN SPA/share/13.jpg"&gt;
+&lt;br&gt;
+品名：濾光帽&lt;br&gt;
+顏色：粉 橘 綠&lt;br&gt;&lt;br&gt;
+尺寸：F 可調整鬆緊設計&lt;br&gt;
+帽緣：深24cm、頭圍42-60cm、帽高16cm)&lt;br&gt;&lt;br&gt;
+材質：50%POLYESTER 50%Comfo-Fil(R)&lt;br&gt;
+產地：台灣&lt;br&gt;&lt;br&gt;
+洗滌方式：&lt;br&gt;
+此為特殊機能面料 洗滌正確則可持久保持功用&lt;br&gt;
+請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精&lt;br&gt;
+品名：濾光帽&lt;br&gt;
+顏色：粉 橘 綠&lt;br&gt;&lt;br&gt;
+尺寸：F 可調整鬆緊設計&lt;br&gt;
+帽緣：深24cm、頭圍42-60cm、帽高16cm)&lt;br&gt;&lt;br&gt;
+材質：50%POLYESTER 50%Comfo-Fil(R)&lt;br&gt;
+產地：台灣&lt;br&gt;&lt;br&gt;
+洗滌方式：&lt;br&gt;
+此為特殊機能面料 洗滌正確則可持久保持功用&lt;br&gt;
+請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境內&lt;br&gt;&lt;div class="video3"&gt;&lt;iframe height="498" width="510" src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder="0 allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;br&gt;&lt;br&gt;境外&lt;br&gt;&lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;br&gt;&lt;img src="./products/SUN SPA/share/11.jpg"&gt;&lt;img src="./products/SUN SPA/share/12.jpg"&gt;&lt;img src="./products/SUN SPA/cap/750.jpg"&gt;&lt;img src="./products/SUN SPA/cap/1.jpg"&gt;&lt;img src="./products/SUN SPA/cap/2.jpg"&gt;&lt;img src="./products/SUN SPA/cap/3.jpg"&gt;&lt;img src="./products/SUN SPA/cap/4.jpg"&gt;&lt;img src="./products/SUN SPA/share/13.jpg"&gt;&lt;br&gt;品名：濾光帽&lt;br&gt;顏色：粉 橘 綠&lt;br&gt;&lt;br&gt;
+尺寸：F 可調整鬆緊設計&lt;br&gt;帽緣：深24cm、頭圍42-60cm、帽高16cm)&lt;br&gt;&lt;br&gt;材質：50%POLYESTER 50%Comfo-Fil(R)&lt;br&gt;產地：台灣&lt;br&gt;&lt;br&gt;洗滌方式：&lt;br&gt;此為特殊機能面料 洗滌正確則可持久保持功用&lt;br&gt;
+請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精&lt;br&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,8 +252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -371,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -398,18 +587,373 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="145.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="145.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/products/SUN SPA/上架.xlsx
+++ b/products/SUN SPA/上架.xlsx
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>

--- a/products/SUN SPA/上架.xlsx
+++ b/products/SUN SPA/上架.xlsx
@@ -54,9 +54,6 @@
     <t>Filtering sunlight cap</t>
   </si>
   <si>
-    <t>真 專利光學面料,過濾有害光 保留有益光,非塗層 效果持久 久曬不褪色,&lt;br&gt;登山和極地 專業機能服等級織物,醫級無毒布 / UPF50+ 織物抗UV最高規格,&lt;br&gt;物理光能護膚 非侵入 免塗抹,遮陽防曬 輕薄透氣 抗UV防紫外線,&lt;br&gt;顏色：粉 橘 綠,尺寸：F 可調整鬆緊設計,帽緣深24cm、頭圍42-60cm、帽高16cm),材質：50%POLYESTER 50%Comfo-Fil(R),產地：台灣&lt;br&gt;洗滌方式：,此為特殊機能面料 洗滌正確則可持久保持功用,請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精</t>
-  </si>
-  <si>
     <t>商品2</t>
   </si>
   <si>
@@ -156,17 +153,6 @@
   </si>
   <si>
     <t>濾光帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">真 專利光學面料,
-過濾有害光 保留有益光,
-非塗層 效果持久 久曬不褪色,
-登山和極地 專業機能服等級織物,
-醫級無毒布 / UPF50+ 織物抗UV最高規格
-物理光能護膚 非侵入 免塗抹,
-遮陽防曬 輕薄透氣 抗UV防紫外線
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,6 +195,21 @@
     <t>境內&lt;br&gt;&lt;div class="video3"&gt;&lt;iframe height="498" width="510" src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder="0 allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;br&gt;&lt;br&gt;境外&lt;br&gt;&lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;br&gt;&lt;img src="./products/SUN SPA/share/11.jpg"&gt;&lt;img src="./products/SUN SPA/share/12.jpg"&gt;&lt;img src="./products/SUN SPA/cap/750.jpg"&gt;&lt;img src="./products/SUN SPA/cap/1.jpg"&gt;&lt;img src="./products/SUN SPA/cap/2.jpg"&gt;&lt;img src="./products/SUN SPA/cap/3.jpg"&gt;&lt;img src="./products/SUN SPA/cap/4.jpg"&gt;&lt;img src="./products/SUN SPA/share/13.jpg"&gt;&lt;br&gt;品名：濾光帽&lt;br&gt;顏色：粉 橘 綠&lt;br&gt;&lt;br&gt;
 尺寸：F 可調整鬆緊設計&lt;br&gt;帽緣：深24cm、頭圍42-60cm、帽高16cm)&lt;br&gt;&lt;br&gt;材質：50%POLYESTER 50%Comfo-Fil(R)&lt;br&gt;產地：台灣&lt;br&gt;&lt;br&gt;洗滌方式：&lt;br&gt;此為特殊機能面料 洗滌正確則可持久保持功用&lt;br&gt;
 請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">真 專利光學面料,
+過濾有害光 保留有益光,
+非塗層 效果持久 久曬不褪色,
+登山和極地 專業機能服等級織物,
+醫級無毒布 / UPF50+ 織物抗UV最高規格
+物理光能護膚 非侵入 免塗抹,
+遮陽防曬 輕薄透氣 抗UV防紫外線
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真 專利光學面料,過濾有害光 保留有益光,非塗層 效果持久 久曬不褪色,登山和極地 專業機能服等級織物,醫級無毒布 / UPF50+ 織物抗UV最高規格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -637,10 +638,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
@@ -648,16 +649,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -665,16 +666,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -682,16 +683,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.3">
@@ -699,16 +700,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.3">
@@ -716,16 +717,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -733,16 +734,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,16 +751,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +775,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -812,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -821,10 +822,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
@@ -832,16 +833,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -849,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -866,16 +867,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.3">
@@ -883,16 +884,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.3">
@@ -900,16 +901,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -917,16 +918,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -934,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/products/SUN SPA/上架.xlsx
+++ b/products/SUN SPA/上架.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -156,8 +156,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>境內&lt;br&gt;&lt;div class="video3"&gt;&lt;iframe height="498" width="510" src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder="0 allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;br&gt;&lt;br&gt;境外&lt;br&gt;&lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;br&gt;&lt;img src="./products/SUN SPA/share/11.jpg"&gt;&lt;img src="./products/SUN SPA/share/12.jpg"&gt;&lt;img src="./products/SUN SPA/cap/750.jpg"&gt;&lt;img src="./products/SUN SPA/cap/1.jpg"&gt;&lt;img src="./products/SUN SPA/cap/2.jpg"&gt;&lt;img src="./products/SUN SPA/cap/3.jpg"&gt;&lt;img src="./products/SUN SPA/cap/4.jpg"&gt;&lt;img src="./products/SUN SPA/share/13.jpg"&gt;&lt;br&gt;品名：濾光帽&lt;br&gt;顏色：粉 橘 綠&lt;br&gt;&lt;br&gt;
+尺寸：F 可調整鬆緊設計&lt;br&gt;帽緣：深24cm、頭圍42-60cm、帽高16cm)&lt;br&gt;&lt;br&gt;材質：50%POLYESTER 50%Comfo-Fil(R)&lt;br&gt;產地：台灣&lt;br&gt;&lt;br&gt;洗滌方式：&lt;br&gt;此為特殊機能面料 洗滌正確則可持久保持功用&lt;br&gt;
+請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">真 專利光學面料,
+過濾有害光 保留有益光,
+非塗層 效果持久 久曬不褪色,
+登山和極地 專業機能服等級織物,
+醫級無毒布 / UPF50+ 織物抗UV最高規格
+物理光能護膚 非侵入 免塗抹,
+遮陽防曬 輕薄透氣 抗UV防紫外線
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真 專利光學面料,過濾有害光 保留有益光,非塗層 效果持久 久曬不褪色,登山和極地 專業機能服等級織物,醫級無毒布 / UPF50+ 織物抗UV最高規格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>境內&lt;br&gt;
-&lt;div class="video3"&gt;&lt;iframe height="498" width="510" src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder="0 allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
+&lt;div class="video3"&gt;&lt;iframe height="498" width="510" src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
 &lt;br&gt;&lt;br&gt;
 境外&lt;br&gt;
 &lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
@@ -189,27 +210,6 @@
 洗滌方式：&lt;br&gt;
 此為特殊機能面料 洗滌正確則可持久保持功用&lt;br&gt;
 請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精&lt;br&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>境內&lt;br&gt;&lt;div class="video3"&gt;&lt;iframe height="498" width="510" src="http://player.youku.com/embed/XMzg1NDA1NjY5Ng==" frameborder="0 allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;br&gt;&lt;br&gt;境外&lt;br&gt;&lt;div class="video3"&gt;&lt;iframe width="820" height="370" src="https://www.youtube.com/embed/eoJWvFhbkgU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;br&gt;&lt;img src="./products/SUN SPA/share/11.jpg"&gt;&lt;img src="./products/SUN SPA/share/12.jpg"&gt;&lt;img src="./products/SUN SPA/cap/750.jpg"&gt;&lt;img src="./products/SUN SPA/cap/1.jpg"&gt;&lt;img src="./products/SUN SPA/cap/2.jpg"&gt;&lt;img src="./products/SUN SPA/cap/3.jpg"&gt;&lt;img src="./products/SUN SPA/cap/4.jpg"&gt;&lt;img src="./products/SUN SPA/share/13.jpg"&gt;&lt;br&gt;品名：濾光帽&lt;br&gt;顏色：粉 橘 綠&lt;br&gt;&lt;br&gt;
-尺寸：F 可調整鬆緊設計&lt;br&gt;帽緣：深24cm、頭圍42-60cm、帽高16cm)&lt;br&gt;&lt;br&gt;材質：50%POLYESTER 50%Comfo-Fil(R)&lt;br&gt;產地：台灣&lt;br&gt;&lt;br&gt;洗滌方式：&lt;br&gt;此為特殊機能面料 洗滌正確則可持久保持功用&lt;br&gt;
-請勿 乾洗 烘乾 熨燙 漂白 柔軟精 / 可 手洗 中性洗衣精&lt;br&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">真 專利光學面料,
-過濾有害光 保留有益光,
-非塗層 效果持久 久曬不褪色,
-登山和極地 專業機能服等級織物,
-醫級無毒布 / UPF50+ 織物抗UV最高規格
-物理光能護膚 非侵入 免塗抹,
-遮陽防曬 輕薄透氣 抗UV防紫外線
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真 專利光學面料,過濾有害光 保留有益光,非塗層 效果持久 久曬不褪色,登山和極地 專業機能服等級織物,醫級無毒布 / UPF50+ 織物抗UV最高規格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -638,10 +638,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -822,10 +822,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
